--- a/agency_detailed_info.xlsx
+++ b/agency_detailed_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vocso</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,12 +483,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Digital Marketing / Web Agency</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.vocso.com/</t>
+          <t>https://echovme.in/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,19 +503,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>At Vertelo we’re helping to redefine transportation for a more sustainable India.</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Seoexpertscompanyindia</t>
+          <t>Socialpanga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CEO, Friction Studio</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,12 +525,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://seoexpertscompanyindia.com/</t>
+          <t>https://socialpanga.com/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>info@seoexpertscompanyindia.com</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,19 +540,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>“Since onboarding the SEO Experts Company India team, the company has seen a steady increase in their rankings, with more and more projects getting to the 1st page. The company estimates that they will be able to see a significant increase in organic search traffic in the coming six months.”</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Foduu</t>
+          <t>Matebiz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manager – Znergy Cable</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,12 +562,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.foduu.com/</t>
+          <t>https://www.matebiz.com/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>info@foduu.com</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -577,866 +577,866 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FODUU (Foundation Of Design Uprising Unit) is an affordable web design company in India with over 14+ years of industry experience in developing, creating websites and apps using latest technologies and affordable prices for small to medium businesses and startups of all sizes. We build all types of websites including portfolio, blogs, E-Commerce, social media, directory websites and landing pages at affordable package pricing.</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Clutch</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://clutch.co/in/web-designers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Matebiz</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.matebiz.com/digital-marketing-service/</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Webeesocial</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Manager, Teamwork Arts</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://webeesocial.com/</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>soumya.sharma@webeesocial.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>WeBeeSocial is a full-scale Digital Marketing Agency based out of New Delhi, India. We mix our years of experience and knowledge to create solutions for our clients which are not only performance driven, but also creative.  We are running kick-ass digital campaigns for our clients, even as you read this!</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Seoexpertscompanyindia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CEO, Friction Studio</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://seoexpertscompanyindia.com/</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>info@seoexpertscompanyindia.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>“Since onboarding the SEO Experts Company India team, the company has seen a steady increase in their rankings, with more and more projects getting to the 1st page. The company estimates that they will be able to see a significant increase in organic search traffic in the coming six months.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Designrush</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.designrush.com/agency/website-design-development/in</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Designrush</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.designrush.com/agency/search-engine-optimization/in</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mandywebdesign</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.mandywebdesign.com/</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9872-774871</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>We are functioning as the best web development company in India, which prepares flexible layouts, images and cascading sheet media queries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Seotonic</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Manager, Digital Marketing</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.seotonic.com/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>+919893390926</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Top SEO Agency Based in India for USA, UK, Singapore, Canada, Across the Globe</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ezrankings</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.ezrankings.com/seo-company-india.html</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>contactus@ezrankings.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>+91-9560133711</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>SEO Company in India</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Designrush</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.designrush.com/agency/digital-agencies/in</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Socialee</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.socialee.in/</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Foduu</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Manager – Znergy Cable</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.foduu.com/</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>info@foduu.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FODUU (Foundation Of Design Uprising Unit) is an affordable web design company in India with over 14+ years of industry experience in developing, creating websites and apps using latest technologies and affordable prices for small to medium businesses and startups of all sizes. We build all types of websites including portfolio, blogs, E-Commerce, social media, directory websites and landing pages at affordable package pricing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Webhopers</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Great Work Environment and Learning Experience. Director</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.webhopers.com/top-web-designing-companies-in-india</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>+916000810002info@webhopers.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>+916000810002</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Top 10 Web Designing Companies in India</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Digitalsilk</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.digitalsilk.com/</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Webhopers</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Great Work Environment and Learning Experience. Director</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.webhopers.com/seo-company-india</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>+916000810002info@webhopers.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>+916000810002</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>SEO Company in India</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Acodez</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://acodez.in/</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>info@acodez.in</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Acodez is a multi-international award winning digital agency, with offices in Gurgaon, Mumbai, Bangalore and Calicut in India. Started in 2011, Acodez has more than 600 satisfied customers spread across 70+ Countries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Omrdigital</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://omrdigital.com/</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Digidarts</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mukund Rao Muvin Co-Founder</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.digidarts.com/</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>gameon@digidarts.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8929447313</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>At Digidarts, we want to emphasize that we do not charge any fees for job placements or interviews. Unfortunately, scammers have been impersonating our team and requesting money in exchange for employment opportunities. Please remain vigilant and cautious. We never ask for payment of any kind during the recruitment process. Additionally, all communication from Digidarts will always come from official email addresses. If you encounter any suspicious messages or activities, we strongly encourage you to report them to the respective platforms and the CyberCrime portal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Whiteriversmedia</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.whiteriversmedia.com/</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Vocso</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.vocso.com/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>At Vertelo we’re helping to redefine transportation for a more sustainable India.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Brandloom</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Director Ashley Stewart</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.brandloom.com/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>care@brandloom.com</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>+91-7669647020</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Take advantage of our expertise. Build your Brand Equity and Business online. Take your Marketing &amp; Business ideas live &amp; turn it into a profitable and growing business with the best digital marketing company in India!</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Seodiscovery</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Directory Listings: Director</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.seodiscovery.com/seo-company-india.php</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SEO is in our DNA. Over the last 22 years, we have dedicatedly served more than 10K+ satisfied clients and earned the trust of businesses worldwide. Our efforts have paid off, as we have been recognized with 35 awards for the Best SEO Company, including top honors from Clutch , Forbes India, The Hindu, and more. We count on every single penny that our client invests.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Mumbaiwebdesign</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Director
 Good Day</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://www.mumbaiwebdesign.in/</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>sales@mumbaiwebdesign.in</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>+91 9967857485</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Mumbai Web Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Brandloom</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Director Ashley Stewart</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://www.brandloom.com/</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>care@brandloom.com</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+91-7669647020</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Take advantage of our expertise. Build your Brand Equity and Business online. Take your Marketing &amp; Business ideas live &amp; turn it into a profitable and growing business with the best digital marketing company in India!</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>The7eagles</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://the7eagles.com/india/seo-company/</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+919042275793</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>As the internet is available in every street and corner of India along with smart phone in 70% of the population, online experience of any brand starts with search engines.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Webeesocial</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Manager, Teamwork Arts</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://webeesocial.com/</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>soumya.sharma@webeesocial.com</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>WeBeeSocial is a full-scale Digital Marketing Agency based out of New Delhi, India. We mix our years of experience and knowledge to create solutions for our clients which are not only performance driven, but also creative.  We are running kick-ass digital campaigns for our clients, even as you read this!</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Indiawebdesigns</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://indiawebdesigns.in/</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>India's Most Trusted Web Design &amp; Digital Marketing Company.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Wefttechnologies</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://wefttechnologies.com/digital-marketing-company-in-india/</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Idigitalise</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Blog News Testimonials   ABOUT  About iDigitalise Director</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://idigitalise.net/</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ihelp@idigitalise.net</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>355694095558</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Get Google's #1 ranking with iDigitalize's SEO solutions. With our SEO agency in India, we ensure top rankings for different businesses. Increase keyword ranking using our SEO optimization strategies,technical SEO, local SEO, and on- and off-page techniques.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ezrankings</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://www.ezrankings.com/</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>contactus@ezrankings.com</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+91-9560133711</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Our experts are here to help you with advice and resources to boost sales and enhance brand awareness. Get ahead and partner with India's top digital marketing company, EZ Rankings, to boost your business and take your business to the next level.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Noviindus</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://noviindus.com/web-designing-company-india/</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>crm@noviindus.com</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+91 9995843985</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>PREMIER WEB DESIGNING COMPANY IN INDIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Rankingbyseo</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://www.rankingbyseo.com/</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>sales@rankingbyseo.com</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+919953532683</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>This is to recommend Ranking By SEO India as a reliable and professional company, They have been handling all our search engine optimization matters for a long time, and have always been very helpful and efficient.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Aaravinfotech</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://www.aaravinfotech.com/web-design-services.php</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>biz@aaravinfotech.com</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+912250245291</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>There is no one definitive answer to this question, as the cost of professional web design services can vary greatly depending on the scope and complexity of the project, the skills and experience of the designer or design team, and the location of the business. However, some general ballpark figures can be provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>/search?num=17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Aoneseoservice</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://www.aoneseoservice.com/</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>info@aoneseoservice.com</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+91 8101118111</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>As an eminent SEO company in India, we strategically and gracefully optimize your website for search visibility. We have our sleeves rolled up to help you turn your website into a lead generation machine. Our records and results speak of our mastery.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Socialee</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.socialee.in/</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Matebiz</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://www.matebiz.com/digital-marketing-service/</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Socialpanga</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://socialpanga.com/</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Digidarts</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Mukund Rao Muvin Co-Founder</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://www.digidarts.com/</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>gameon@digidarts.com</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8929447313</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>At Digidarts, we want to emphasize that we do not charge any fees for job placements or interviews. Unfortunately, scammers have been impersonating our team and requesting money in exchange for employment opportunities. Please remain vigilant and cautious. We never ask for payment of any kind during the recruitment process. Additionally, all communication from Digidarts will always come from official email addresses. If you encounter any suspicious messages or activities, we strongly encourage you to report them to the respective platforms and the CyberCrime portal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Techmagnate</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CEO Sarvesh Bagla</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.techmagnate.com/</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>enquiry@techmagnate.com</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+91-9910308266</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Techmagnate is India’s top digital marketing and SEO services company. From conceptualization to final-stage execution, we implement the entire digital marketing strategy. Though we adopt a 360° approach to digital marketing, our expertise lies in SEO services – from Enterprise SEO to local SEO, from App SEO to Video SEO and everything in between. With 15 years as leaders in SEO in India, we are on a mission to deliver transformational growth to 250 customers in 2025. If you’re serious about your digital performance, you've found the right partner. We’ll help you meet your marketing objectives and help your business achieve the growth you've always wanted.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Neelnetworks</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.neelnetworks.com/</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>admin@neelnetworks.com</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Neel Networks is a trusted web design and development company in India with over 10 years of experience. We offer custom digital solutions across web design, mobile apps, cloud applications, digital marketing, and graphic design, specializing in platforms like WordPress, Shopify, and Laravel. Known for quality and innovation, we help businesses achieve success online.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Ezrankings</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.ezrankings.com/seo-company-india.html</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>contactus@ezrankings.com</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+91-9560133711</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>SEO Company in India</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Mandywebdesign</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.mandywebdesign.com/</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>9872-774871</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>We are functioning as the best web development company in India, which prepares flexible layouts, images and cascading sheet media queries.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Seoserviceinindia</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Blog Commenting, Director</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://seoserviceinindia.co.in/</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>+919717686168</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Search engine optimisation is the process of increasing the quantity and quality of organic website traffic to your website or business on the search engine results page. When everything is virtual and everyone prefers online reviews and results, it is important that your business have a good reputation in the digital world and appear first if searched, and for that, youll need SEO Services India by your side.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Orangemantra</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Digital Marketing / Web Agency</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://www.orangemantra.com/services/search-engine-optimization/</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+91-9870289050</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>As the forerunners in the field of SEO marketing company in India, we offer a flexible and holistic approach to improving client conversion rates. Our motive when working for any client is to elevate their sales and revenue. To meet this vision, our experts rely on some of the latest optimization services, such as E-A-T Content, hyperlocal SEO, featured snippets, and more.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Designrush</t>
+          <t>Colorwhistle</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.designrush.com/agency/digital-agencies/in</t>
+          <t>https://colorwhistle.com/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Digital Web Design Agency India</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Omrdigital</t>
+          <t>Ezrankings</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1488,34 +1488,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://omrdigital.com/</t>
+          <t>https://www.ezrankings.com/web-design-company-india.html</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>contactus@ezrankings.com</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>+91-9560133711</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Website Designing Services India</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Acodez</t>
+          <t>Florafountain</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Manager,
+                                        Wagh Bakri</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1525,34 +1526,34 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://acodez.in/</t>
+          <t>https://florafountain.com/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>info@acodez.in</t>
+          <t>hello@florafountain.com</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>+919510924360</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Acodez is a multi-international award winning digital agency, with offices in Gurgaon, Mumbai, Bangalore and Calicut in India. Started in 2011, Acodez has more than 600 satisfied customers spread across 70+ Countries.</t>
+          <t>We were already known as the best in the automobile detailing industry in India. However, we were looking to streamline and improve our overall branding activity. Having seen the way Flora Fountain has managed the various aspects of branding and marketing for many brands, we knew they were the ones for us. Right from managing the social media pages of our head office, to streamlining our marketing communication and coordinating with our franchisee partners to help them with their promotions, Flora Fountain has been hitting it out of the park for us.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Matebiz</t>
+          <t>Linkedin</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CEO | 22 Years Expertise</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1562,7 +1563,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.matebiz.com/</t>
+          <t>https://www.linkedin.com/pulse/top-10-digital-marketing-agencies-india-socialee-wldmf</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1577,14 +1578,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Let's jump into the list of India's top 10 digital marketing agencies in India who have cracked how to make this all easy and breezy for you and your brand.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Linkedin</t>
+          <t>Pixelcrayons</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1599,7 +1600,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/top-web-design-companies-india-palak-shah</t>
+          <t>https://www.pixelcrayons.com/services/digital-marketing/seo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1614,7 +1615,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>India, with its vibrant and thriving web design industry, stands as a hub for innovative digital solutions. In this comprehensive guide, we will dive deep into the top web design companies in India, exploring their capabilities, strengths, and contributions to the industry.</t>
+          <t>Our SEO agency in India consists of skilled consultants, analysts and marketers. We focus on providing quality SEO solutions.</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1659,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pwskills</t>
+          <t>Aoneseoservice</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1673,29 +1674,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://pwskills.com/blog/digital-marketing-companies/</t>
+          <t>https://www.aoneseoservice.com/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>support@pwskills.com</t>
+          <t>info@aoneseoservice.com</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>+91 8448982581</t>
+          <t>+91 8101118111</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Digital marketing companies or firms provide services aimed at promoting products or services online. These companies utilize digital channels to help your brand grow. Let us know some of the best agencies in India in this article.</t>
+          <t>As an eminent SEO company in India, we strategically and gracefully optimize your website for search visibility. We have our sleeves rolled up to help you turn your website into a lead generation machine. Our records and results speak of our mastery.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Rankontechnologies</t>
+          <t>Indiawebdesigns</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1710,12 +1711,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.rankontechnologies.com/seo-services/</t>
+          <t>https://indiawebdesigns.in/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>support@rankontechnologies.com</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1725,19 +1726,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Award Winning SEO Agency in India</t>
+          <t>India's Most Trusted Web Design &amp; Digital Marketing Company.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Seodiscovery</t>
+          <t>Aaravinfotech</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Directory Listings: Director</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1747,34 +1748,34 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.seodiscovery.com/seo-company-india.php</t>
+          <t>https://www.aaravinfotech.com/web-design-services.php</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>biz@aaravinfotech.com</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>+912250245291</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>SEO is in our DNA. Over the last 22 years, we have dedicatedly served more than 10K+ satisfied clients and earned the trust of businesses worldwide. Our efforts have paid off, as we have been recognized with 35 awards for the Best SEO Company, including top honors from Clutch , Forbes India, The Hindu, and more. We count on every single penny that our client invests.</t>
+          <t>There is no one definitive answer to this question, as the cost of professional web design services can vary greatly depending on the scope and complexity of the project, the skills and experience of the designer or design team, and the location of the business. However, some general ballpark figures can be provided.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Seotonic</t>
+          <t>Rankontechnologies</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Manager, Digital Marketing</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1784,34 +1785,34 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.seotonic.com/</t>
+          <t>https://www.rankontechnologies.com/seo-services/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>support@rankontechnologies.com</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>+919893390926</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Top SEO Agency Based in India for USA, UK, Singapore, Canada, Across the Globe</t>
+          <t>Award Winning SEO Agency in India</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Webhopers</t>
+          <t>Techmagnate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Great Work Environment and Learning Experience. Director</t>
+          <t>CEO Sarvesh Bagla</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1821,34 +1822,34 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.webhopers.com/seo-company-india</t>
+          <t>https://www.techmagnate.com/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>+916000810002info@webhopers.com</t>
+          <t>enquiry@techmagnate.com</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>+916000810002</t>
+          <t>+91-9910308266</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SEO Company in India</t>
+          <t>Techmagnate is India’s top digital marketing and SEO services company. From conceptualization to final-stage execution, we implement the entire digital marketing strategy. Though we adopt a 360° approach to digital marketing, our expertise lies in SEO services – from Enterprise SEO to local SEO, from App SEO to Video SEO and everything in between. With 15 years as leaders in SEO in India, we are on a mission to deliver transformational growth to 250 customers in 2025. If you’re serious about your digital performance, you've found the right partner. We’ll help you meet your marketing objectives and help your business achieve the growth you've always wanted.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Designrush</t>
+          <t>Seoserviceinindia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Blog Commenting, Director</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1858,7 +1859,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.designrush.com/agency/website-design-development/in</t>
+          <t>https://seoserviceinindia.co.in/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1868,24 +1869,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>+919717686168</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Search engine optimisation is the process of increasing the quantity and quality of organic website traffic to your website or business on the search engine results page. When everything is virtual and everyone prefers online reviews and results, it is important that your business have a good reputation in the digital world and appear first if searched, and for that, youll need SEO Services India by your side.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Webhopers</t>
+          <t>Semrush</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Great Work Environment and Learning Experience. Director</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1895,22 +1896,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.webhopers.com/top-web-designing-companies-in-india</t>
+          <t>https://www.semrush.com/agencies/list/seo/india/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>+916000810002info@webhopers.com</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>+916000810002</t>
+          <t>100202011</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Top 10 Web Designing Companies in India</t>
+          <t>Put location aside and browse all  agencies.</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1933,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.ezrankings.com/web-design-company-india.html</t>
+          <t>https://www.ezrankings.com/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1947,14 +1948,14 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Website Designing Services India</t>
+          <t>Our experts are here to help you with advice and resources to boost sales and enhance brand awareness. Get ahead and partner with India's top digital marketing company, EZ Rankings, to boost your business and take your business to the next level.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Colorwhistle</t>
+          <t>Rankingbyseo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1969,34 +1970,34 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://colorwhistle.com/</t>
+          <t>https://www.rankingbyseo.com/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>sales@rankingbyseo.com</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>+919953532683</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Digital Web Design Agency India</t>
+          <t>This is to recommend Ranking By SEO India as a reliable and professional company, They have been handling all our search engine optimization matters for a long time, and have always been very helpful and efficient.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Linkedin</t>
+          <t>Pwskills</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CEO | 22 Years Expertise</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2006,29 +2007,29 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/top-10-digital-marketing-agencies-india-socialee-wldmf</t>
+          <t>https://pwskills.com/blog/digital-marketing-companies/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>support@pwskills.com</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>+91 8448982581</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Let's jump into the list of India's top 10 digital marketing agencies in India who have cracked how to make this all easy and breezy for you and your brand.</t>
+          <t>Digital marketing companies or firms provide services aimed at promoting products or services online. These companies utilize digital channels to help your brand grow. Let us know some of the best agencies in India in this article.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Semrush</t>
+          <t>Noviindus</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2043,29 +2044,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.semrush.com/agencies/list/seo/india/</t>
+          <t>https://noviindus.com/web-designing-company-india/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>crm@noviindus.com</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>+91 9995843985</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Put location aside and browse all  agencies.</t>
+          <t>PREMIER WEB DESIGNING COMPANY IN INDIA</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Designrush</t>
+          <t>Orangemantra</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2080,7 +2081,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.designrush.com/agency/search-engine-optimization/in</t>
+          <t>https://www.orangemantra.com/services/search-engine-optimization/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2090,10 +2091,47 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>+91-9870289050</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
+        <is>
+          <t>As the forerunners in the field of SEO marketing company in India, we offer a flexible and holistic approach to improving client conversion rates. Our motive when working for any client is to elevate their sales and revenue. To meet this vision, our experts rely on some of the latest optimization services, such as E-A-T Content, hyperlocal SEO, featured snippets, and more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Wefttechnologies</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Digital Marketing / Web Agency</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://wefttechnologies.com/digital-marketing-company-in-india/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
